--- a/refair-server/datasets/FSDataset-2.xlsx
+++ b/refair-server/datasets/FSDataset-2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="113">
   <si>
     <t>Domain Cluster</t>
   </si>
@@ -287,6 +287,69 @@
   </si>
   <si>
     <t>As a demographer, I want to develop word embedding models to map demographic terminology across different languages, enabling cross-cultural comparisons and international demographic research collaborations.</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>As an Educator, I want to apply adversarial learning techniques to detect and mitigate cheating in online exams, so that academic integrity is maintained and student assessments are reliable.</t>
+  </si>
+  <si>
+    <t>As an Educator, I want to integrate CNNs into virtual reality educational simulations to enhance immersive learning experiences, allowing students to interact with historical or scientific environments in a more engaging way.</t>
+  </si>
+  <si>
+    <t>As an Educator, I want to integrate a conversational agent into online tutoring platforms to simulate interactive learning sessions, offering personalized guidance and support to students outside of class hours.</t>
+  </si>
+  <si>
+    <t>As an Educator, I want to use decision trees to personalize learning pathways for students with diverse learning styles and abilities, ensuring that each student receives content and instructional methods suited to their needs.</t>
+  </si>
+  <si>
+    <t>As an Educator, I want to use document classification techniques to automatically categorize research papers and educational resources by subject area, facilitating easier access and retrieval for students and researchers.</t>
+  </si>
+  <si>
+    <t>As an Educator, I want to utilize entity extraction algorithms to extract relevant information from educational research articles and papers, enabling quick summarization and synthesis of findings for educational practitioners and policymakers.</t>
+  </si>
+  <si>
+    <t>As an Educator, I want to utilize feature selection algorithms to identify the most relevant academic performance metrics for predicting student success, enabling targeted interventions and support programs.</t>
+  </si>
+  <si>
+    <t>As an Educator, I want to apply methods for handling imbalanced datasets to predict student dropout rates based on historical academic records and socio-economic factors, enabling early intervention strategies.</t>
+  </si>
+  <si>
+    <t>As an Educator, I want to apply k-Nearest Neighbor algorithms to recommend personalized learning resources based on students' academic interests and learning preferences, enhancing engagement and motivation.</t>
+  </si>
+  <si>
+    <t>As an Educator, I want to use keyword extraction techniques to analyze student essays and assignments, extracting relevant keywords to assess topic coverage and depth of understanding across different subject areas.</t>
+  </si>
+  <si>
+    <t>As an Educator, I want to utilize multi-label classification algorithms to classify student learning profiles based on diverse academic skills and competencies, facilitating targeted curriculum adaptations and enrichment programs.</t>
+  </si>
+  <si>
+    <t>As an Educator, I want to implement neural networks for analyzing educational assessment data to predict student learning trajectories and identify potential areas for academic improvement or intervention.</t>
+  </si>
+  <si>
+    <t>As an Educator, I want to use random forest algorithms to assess the effectiveness of different teaching methodologies and curriculum designs based on student outcomes and feedback, optimizing educational practices.</t>
+  </si>
+  <si>
+    <t>As an Educator, I want to implement semantic similarity models to automatically identify plagiarism in student submissions, preserving academic integrity and promoting originality in academic work.</t>
+  </si>
+  <si>
+    <t>As an Educator, I want to use sentiment analysis to monitor student sentiment towards online learning platforms and tools, identifying areas for enhancement to improve user experience and engagement.</t>
+  </si>
+  <si>
+    <t>As an Educator, I want to use speech to text systems to automate the transcription of student presentations and group discussions, enabling more accurate assessment and feedback on oral communication skills.</t>
+  </si>
+  <si>
+    <t>As an Educator, I want to deploy text categorization algorithms to organize educational blog posts and online articles into thematic categories (e.g., pedagogy, technology integration, classroom management), supporting professional development for educators.</t>
+  </si>
+  <si>
+    <t>As an Educator, I want to utilize unsupervised clustering models to classify educational resources and materials into clusters based on their similarity in content and teaching approach, facilitating targeted recommendations for educators and learners.</t>
+  </si>
+  <si>
+    <t>As an Educator, I want to deploy voice recognition technology in language learning applications to provide pronunciation feedback and practice opportunities for students learning foreign languages, improving speaking proficiency.</t>
+  </si>
+  <si>
+    <t>As an Educator, I want to leverage word embedding models for semantic analysis of educational discussions and forums, identifying common themes and topics to foster collaborative learning and knowledge sharing among students.</t>
   </si>
 </sst>
 </file>
@@ -344,7 +407,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,8 +422,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEC5C07"/>
-        <bgColor rgb="FFEC5C07"/>
+        <fgColor rgb="FFFFD966"/>
+        <bgColor rgb="FFFFD966"/>
       </patternFill>
     </fill>
     <fill>
@@ -371,12 +434,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF1C232"/>
+        <bgColor rgb="FFF1C232"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFBF9000"/>
         <bgColor rgb="FFBF9000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border/>
     <border>
       <left style="thin">
@@ -419,11 +488,24 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -478,13 +560,27 @@
     <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1601,7 +1697,7 @@
       <c r="D45" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="19" t="s">
         <v>75</v>
       </c>
       <c r="F45" s="8" t="s">
@@ -1621,7 +1717,7 @@
       <c r="D46" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="19" t="s">
         <v>76</v>
       </c>
       <c r="F46" s="8" t="s">
@@ -1638,10 +1734,10 @@
       <c r="C47" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="E47" s="19" t="s">
         <v>77</v>
       </c>
       <c r="F47" s="8" t="s">
@@ -1658,10 +1754,10 @@
       <c r="C48" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E48" s="19" t="s">
         <v>78</v>
       </c>
       <c r="F48" s="8" t="s">
@@ -1678,10 +1774,10 @@
       <c r="C49" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D49" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E49" s="18" t="s">
+      <c r="E49" s="19" t="s">
         <v>79</v>
       </c>
       <c r="F49" s="8" t="s">
@@ -1698,10 +1794,10 @@
       <c r="C50" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="19" t="s">
+      <c r="D50" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E50" s="19" t="s">
         <v>80</v>
       </c>
       <c r="F50" s="8" t="s">
@@ -1718,10 +1814,10 @@
       <c r="C51" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D51" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E51" s="18" t="s">
+      <c r="E51" s="19" t="s">
         <v>81</v>
       </c>
       <c r="F51" s="8" t="s">
@@ -1738,10 +1834,10 @@
       <c r="C52" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D52" s="19" t="s">
+      <c r="D52" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="E52" s="19" t="s">
         <v>82</v>
       </c>
       <c r="F52" s="8" t="s">
@@ -1758,10 +1854,10 @@
       <c r="C53" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D53" s="19" t="s">
+      <c r="D53" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E53" s="18" t="s">
+      <c r="E53" s="19" t="s">
         <v>83</v>
       </c>
       <c r="F53" s="8" t="s">
@@ -1778,10 +1874,10 @@
       <c r="C54" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D54" s="19" t="s">
+      <c r="D54" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E54" s="18" t="s">
+      <c r="E54" s="19" t="s">
         <v>84</v>
       </c>
       <c r="F54" s="8" t="s">
@@ -1798,10 +1894,10 @@
       <c r="C55" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="D55" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E55" s="18" t="s">
+      <c r="E55" s="19" t="s">
         <v>85</v>
       </c>
       <c r="F55" s="8" t="s">
@@ -1818,10 +1914,10 @@
       <c r="C56" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D56" s="19" t="s">
+      <c r="D56" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E56" s="18" t="s">
+      <c r="E56" s="19" t="s">
         <v>86</v>
       </c>
       <c r="F56" s="8" t="s">
@@ -1838,10 +1934,10 @@
       <c r="C57" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="D57" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E57" s="18" t="s">
+      <c r="E57" s="19" t="s">
         <v>87</v>
       </c>
       <c r="F57" s="8" t="s">
@@ -1858,10 +1954,10 @@
       <c r="C58" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D58" s="19" t="s">
+      <c r="D58" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E58" s="18" t="s">
+      <c r="E58" s="19" t="s">
         <v>88</v>
       </c>
       <c r="F58" s="8" t="s">
@@ -1878,10 +1974,10 @@
       <c r="C59" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D59" s="19" t="s">
+      <c r="D59" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="E59" s="18" t="s">
+      <c r="E59" s="19" t="s">
         <v>89</v>
       </c>
       <c r="F59" s="8" t="s">
@@ -1898,10 +1994,10 @@
       <c r="C60" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D60" s="19" t="s">
+      <c r="D60" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E60" s="18" t="s">
+      <c r="E60" s="19" t="s">
         <v>90</v>
       </c>
       <c r="F60" s="8" t="s">
@@ -1918,13 +2014,415 @@
       <c r="C61" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D61" s="19" t="s">
+      <c r="D61" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E61" s="18" t="s">
+      <c r="E61" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F61" s="20"/>
+      <c r="F61" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" s="22">
+        <v>7.0</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" s="22">
+        <v>7.0</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="22">
+        <v>7.0</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="22">
+        <v>7.0</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="22">
+        <v>7.0</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="22">
+        <v>7.0</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="22">
+        <v>7.0</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="22">
+        <v>7.0</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="22">
+        <v>7.0</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="22">
+        <v>7.0</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="22">
+        <v>7.0</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E72" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73" s="22">
+        <v>7.0</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E73" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74" s="22">
+        <v>7.0</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E74" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B75" s="22">
+        <v>7.0</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E75" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B76" s="22">
+        <v>7.0</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E76" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B77" s="22">
+        <v>7.0</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E77" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B78" s="22">
+        <v>7.0</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E78" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B79" s="22">
+        <v>7.0</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E79" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B80" s="22">
+        <v>7.0</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E80" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B81" s="22">
+        <v>7.0</v>
+      </c>
+      <c r="C81" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E81" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/refair-server/datasets/FSDataset-2.xlsx
+++ b/refair-server/datasets/FSDataset-2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="134">
   <si>
     <t>Domain Cluster</t>
   </si>
@@ -350,6 +350,69 @@
   </si>
   <si>
     <t>As an Educator, I want to leverage word embedding models for semantic analysis of educational discussions and forums, identifying common themes and topics to foster collaborative learning and knowledge sharing among students.</t>
+  </si>
+  <si>
+    <t>Social Media</t>
+  </si>
+  <si>
+    <t>As a social media marketer, I want to leverage adversarial learning to enhance the robustness of targeted advertising models against adversarial manipulations, so that I can maintain the effectiveness of ad campaigns despite potential malicious interference.</t>
+  </si>
+  <si>
+    <t>As a social media company, I aim to implement CNN-based image and video recognition systems to enhance content moderation efforts, ensuring timely detection and removal of inappropriate or harmful content.</t>
+  </si>
+  <si>
+    <t>As a social media marketer, I want to integrate a conversational agent into our social media campaigns to engage with users in real-time, providing personalized recommendations and enhancing customer interaction.</t>
+  </si>
+  <si>
+    <t>As a social media company, I aim to deploy decision tree models to analyze user engagement patterns and predict optimal times for posting content to maximize reach and interaction on social media platforms.</t>
+  </si>
+  <si>
+    <t>As a social media analyst, I want to utilize document classification methods to identify and filter out spam and irrelevant content from social media feeds, enhancing the quality and relevance of information presented to users.</t>
+  </si>
+  <si>
+    <t>As a social media marketer, I aim to use entity extraction techniques to analyze user-generated content and extract demographic information such as location, age, and interests, helping to refine targeted advertising strategies.</t>
+  </si>
+  <si>
+    <t>As a social media analyst, I want to apply feature selection techniques to filter out noise and irrelevant data from social media analytics, ensuring that insights derived from sentiment analysis accurately reflect user sentiments towards products and services.</t>
+  </si>
+  <si>
+    <t>As a social media analyst, I want to apply methods to mitigate class imbalance in user engagement prediction models, ensuring that recommendations for enhancing user interaction are based on comprehensive data representation.</t>
+  </si>
+  <si>
+    <t>As a social media analyst, I want to apply k-NN to detect and recommend similar products or services to users based on their preferences and purchase history shared on social media, improving personalized marketing strategies.</t>
+  </si>
+  <si>
+    <t>As a social media analyst, I want to use keyword extraction methods to identify and monitor mentions of brand names, products, and competitors across social media platforms, providing valuable insights into market perception and brand reputation.</t>
+  </si>
+  <si>
+    <t>As a social media marketer, I aim to utilize multi-label classification techniques to classify social media content into multiple marketing campaign categories (e.g., product promotions, customer testimonials, event announcements), optimizing content distribution strategies.</t>
+  </si>
+  <si>
+    <t>As a social media analyst, I want to use neural networks to analyze user behavior and predict trends in social media content consumption, helping companies anticipate shifts in consumer preferences and interests.</t>
+  </si>
+  <si>
+    <t>As a social media analyst, I want to apply random forest techniques to analyze user behavior patterns and segment users based on their interactions and preferences on social media platforms, enabling targeted marketing campaigns.</t>
+  </si>
+  <si>
+    <t>As a social media researcher, I aim to use semantic similarity measures to analyze the similarity between user profiles and identify potential connections and communities within social networks, uncovering hidden relationships and influence patterns.</t>
+  </si>
+  <si>
+    <t>As a social media company, I want to deploy sentiment analysis algorithms to detect and analyze trends in user sentiment towards trending topics and hashtags on our platform, providing insights into public opinion and sentiment shifts.</t>
+  </si>
+  <si>
+    <t>As a social media marketer, I aim to use speech to text technology to automatically transcribe and analyze user-generated videos on social media platforms, extracting keywords and sentiments to inform content strategies.</t>
+  </si>
+  <si>
+    <t>As a social media analyst, I want to develop a text categorization model to classify social media posts into categories such as product reviews, customer feedback, and promotional content, enhancing content organization and analysis.</t>
+  </si>
+  <si>
+    <t>As a social media analyst, I want to apply unsupervised clustering algorithms to cluster user comments and reviews based on semantic similarity, uncovering hidden patterns and correlations between user sentiments and topics of interest.</t>
+  </si>
+  <si>
+    <t>As a social media analyst, I want to develop a voice recognition system to transcribe audio content from social media live streams, enabling real-time analysis of user-generated spoken content for trend identification.</t>
+  </si>
+  <si>
+    <t>As a social media company, I want to develop word embedding algorithms to automatically suggest relevant hashtags and keywords for user posts on social media, improving content visibility and engagement.</t>
   </si>
 </sst>
 </file>
@@ -407,7 +470,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,6 +505,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFBF9000"/>
         <bgColor rgb="FFBF9000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7F6000"/>
+        <bgColor rgb="FF7F6000"/>
       </patternFill>
     </fill>
   </fills>
@@ -505,7 +574,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -579,6 +648,15 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -2424,6 +2502,406 @@
         <v>10</v>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B82" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="C82" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B83" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="C83" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B84" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="C84" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B85" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="C85" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B86" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="C86" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E86" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B87" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="C87" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D87" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E87" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B88" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="C88" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D88" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E88" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B89" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="C89" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E89" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B90" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="C90" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E90" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B91" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="C91" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E91" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B92" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="C92" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D92" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E92" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B93" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="C93" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D93" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E93" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B94" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="C94" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E94" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B95" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="C95" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E95" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B96" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="C96" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D96" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E96" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B97" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="C97" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D97" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E97" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B98" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="C98" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D98" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E98" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B99" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="C99" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D99" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E99" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B100" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="C100" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D100" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E100" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B101" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="C101" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D101" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E101" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/refair-server/datasets/FSDataset-2.xlsx
+++ b/refair-server/datasets/FSDataset-2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="155">
   <si>
     <t>Domain Cluster</t>
   </si>
@@ -413,6 +413,69 @@
   </si>
   <si>
     <t>As a social media company, I want to develop word embedding algorithms to automatically suggest relevant hashtags and keywords for user posts on social media, improving content visibility and engagement.</t>
+  </si>
+  <si>
+    <t>Social Networks</t>
+  </si>
+  <si>
+    <t>As a social network analyst, I want to apply adversarial learning techniques to detect and prevent fake accounts and bot activities, so that I can maintain the integrity and trustworthiness of the platform.</t>
+  </si>
+  <si>
+    <t>As a social network content curator, I want to use CNNs to analyze video content for detecting trending topics and sentiment analysis among users, so that I can optimize content recommendations and advertising strategies.</t>
+  </si>
+  <si>
+    <t>As a content curator for a social networking site, I want to deploy a conversational agent that suggests personalized content (articles, videos, posts) to users based on their interests and engagement history, so that I can enhance user engagement and retention.</t>
+  </si>
+  <si>
+    <t>As a social network analyst, I want to build decision tree models to analyze user behavior patterns (e.g., posting frequency, interaction preferences), so that I can understand user engagement trends and optimize platform algorithms.</t>
+  </si>
+  <si>
+    <t>As a community manager, I want to deploy document classification models to detect and categorize mentions of events or activities in user posts and comments, so that I can facilitate event promotion and engagement among users.</t>
+  </si>
+  <si>
+    <t>As a marketing strategist, I want to apply entity extraction to identify and classify influential users and celebrities mentioned in social media conversations, so that I can engage with key influencers for promotional campaigns and collaborations.</t>
+  </si>
+  <si>
+    <t>As a trend researcher, I want to utilize feature selection techniques to extract relevant features (e.g., hashtag usage, topic frequency) from social media posts to uncover emerging trends and topics of interest among users, so that I can provide insights for content creation and marketing strategies.</t>
+  </si>
+  <si>
+    <t>As a sentiment analyst, I want to manage imbalanced sentiment datasets (e.g., disproportionately positive or negative comments) on social networks to develop accurate sentiment analysis models, so that I can understand nuanced public opinion and sentiment trends.</t>
+  </si>
+  <si>
+    <t>As a social network analyst, I want to use KNN algorithms to identify clusters of users based on their communication patterns (e.g., messaging frequency, content similarity), so that I can understand community structures and interactions within the platform.</t>
+  </si>
+  <si>
+    <t>As a marketing strategist, I want to apply keyword extraction techniques to analyze competitors' social media content and extract key themes and strategies they employ, so that I can benchmark and refine our own marketing efforts accordingly.</t>
+  </si>
+  <si>
+    <t>As a marketing strategist, I want to employ multi-label classification to profile users' interests across various categories (e.g., travel, food, music) from their social media activities, so that I can target them with relevant advertisements and promotions.</t>
+  </si>
+  <si>
+    <t>As a content moderator, I want to deploy neural networks for deep learning-based content filtering to automatically detect and flag inappropriate or sensitive content (e.g., nudity, violence) on social media platforms, so that I can maintain a safe and positive user experience.</t>
+  </si>
+  <si>
+    <t>As a social media platform manager, I want to implement a random forest model to detect fake accounts based on multiple behavioral and profile characteristics (e.g., posting frequency, account creation details), so that I can enhance platform security and user trust.</t>
+  </si>
+  <si>
+    <t>As a search engine developer, I want to leverage semantic similarity techniques to expand user queries by identifying related terms and concepts, so that I can improve search accuracy and relevance on the social media platform.</t>
+  </si>
+  <si>
+    <t>As a product manager, I want to use sentiment analysis to analyze user comments and reviews about our products on social media, so that I can identify areas for improvement and prioritize product development efforts accordingly.</t>
+  </si>
+  <si>
+    <t>As a customer support manager, I want to implement speech to text for converting voicemail or voice messages from customers into text for easier handling and response management on social media platforms, so that I can improve customer service efficiency.</t>
+  </si>
+  <si>
+    <t>As a trend analyst, I want to use text categorization to classify social media posts into trending topics or themes (e.g., fashion, technology, politics), so that I can identify popular discussions and trends among users.</t>
+  </si>
+  <si>
+    <t>As a social network analyst, I want to use unsupervised clustering algorithms to identify and segment communities of users based on their interactions and interests on the platform, so that I can understand community dynamics and foster engagement.</t>
+  </si>
+  <si>
+    <t>As a content creator, I want to leverage voice recognition capabilities to create and publish audio content (e.g., podcasts, voice notes) directly on social media platforms, so that I can engage with my audience in a more dynamic and personal manner.</t>
+  </si>
+  <si>
+    <t>As an advertiser, I want to utilize word embedding algorithms to understand the context and meaning behind user-generated content on social networks, so that I can deliver more relevant and targeted advertisements to users.</t>
   </si>
 </sst>
 </file>
@@ -470,7 +533,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -511,6 +574,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7F6000"/>
         <bgColor rgb="FF7F6000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE69138"/>
+        <bgColor rgb="FFE69138"/>
       </patternFill>
     </fill>
   </fills>
@@ -574,7 +643,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -647,9 +716,6 @@
     <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -657,6 +723,18 @@
       <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -2135,7 +2213,7 @@
       <c r="D63" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E63" s="24" t="s">
+      <c r="E63" s="18" t="s">
         <v>94</v>
       </c>
       <c r="F63" s="8" t="s">
@@ -2155,7 +2233,7 @@
       <c r="D64" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E64" s="24" t="s">
+      <c r="E64" s="19" t="s">
         <v>95</v>
       </c>
       <c r="F64" s="8" t="s">
@@ -2175,7 +2253,7 @@
       <c r="D65" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E65" s="24" t="s">
+      <c r="E65" s="19" t="s">
         <v>96</v>
       </c>
       <c r="F65" s="8" t="s">
@@ -2195,7 +2273,7 @@
       <c r="D66" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E66" s="24" t="s">
+      <c r="E66" s="19" t="s">
         <v>97</v>
       </c>
       <c r="F66" s="8" t="s">
@@ -2215,7 +2293,7 @@
       <c r="D67" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="24" t="s">
+      <c r="E67" s="19" t="s">
         <v>98</v>
       </c>
       <c r="F67" s="8" t="s">
@@ -2235,7 +2313,7 @@
       <c r="D68" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E68" s="24" t="s">
+      <c r="E68" s="19" t="s">
         <v>99</v>
       </c>
       <c r="F68" s="8" t="s">
@@ -2255,7 +2333,7 @@
       <c r="D69" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E69" s="24" t="s">
+      <c r="E69" s="19" t="s">
         <v>100</v>
       </c>
       <c r="F69" s="8" t="s">
@@ -2275,7 +2353,7 @@
       <c r="D70" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E70" s="24" t="s">
+      <c r="E70" s="19" t="s">
         <v>101</v>
       </c>
       <c r="F70" s="8" t="s">
@@ -2295,7 +2373,7 @@
       <c r="D71" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E71" s="24" t="s">
+      <c r="E71" s="19" t="s">
         <v>102</v>
       </c>
       <c r="F71" s="8" t="s">
@@ -2315,7 +2393,7 @@
       <c r="D72" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E72" s="24" t="s">
+      <c r="E72" s="19" t="s">
         <v>103</v>
       </c>
       <c r="F72" s="8" t="s">
@@ -2335,7 +2413,7 @@
       <c r="D73" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E73" s="24" t="s">
+      <c r="E73" s="19" t="s">
         <v>104</v>
       </c>
       <c r="F73" s="8" t="s">
@@ -2355,7 +2433,7 @@
       <c r="D74" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E74" s="24" t="s">
+      <c r="E74" s="19" t="s">
         <v>105</v>
       </c>
       <c r="F74" s="8" t="s">
@@ -2375,7 +2453,7 @@
       <c r="D75" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E75" s="24" t="s">
+      <c r="E75" s="19" t="s">
         <v>106</v>
       </c>
       <c r="F75" s="8" t="s">
@@ -2395,7 +2473,7 @@
       <c r="D76" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E76" s="24" t="s">
+      <c r="E76" s="19" t="s">
         <v>107</v>
       </c>
       <c r="F76" s="8" t="s">
@@ -2415,7 +2493,7 @@
       <c r="D77" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E77" s="24" t="s">
+      <c r="E77" s="19" t="s">
         <v>108</v>
       </c>
       <c r="F77" s="8" t="s">
@@ -2435,7 +2513,7 @@
       <c r="D78" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E78" s="24" t="s">
+      <c r="E78" s="19" t="s">
         <v>109</v>
       </c>
       <c r="F78" s="8" t="s">
@@ -2455,7 +2533,7 @@
       <c r="D79" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="E79" s="24" t="s">
+      <c r="E79" s="19" t="s">
         <v>110</v>
       </c>
       <c r="F79" s="8" t="s">
@@ -2475,7 +2553,7 @@
       <c r="D80" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E80" s="24" t="s">
+      <c r="E80" s="19" t="s">
         <v>111</v>
       </c>
       <c r="F80" s="8" t="s">
@@ -2495,7 +2573,7 @@
       <c r="D81" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E81" s="24" t="s">
+      <c r="E81" s="19" t="s">
         <v>112</v>
       </c>
       <c r="F81" s="8" t="s">
@@ -2503,19 +2581,19 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B82" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="C82" s="27" t="s">
+      <c r="A82" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B82" s="25">
+        <v>7.0</v>
+      </c>
+      <c r="C82" s="26" t="s">
         <v>113</v>
       </c>
       <c r="D82" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E82" s="24" t="s">
+      <c r="E82" s="19" t="s">
         <v>114</v>
       </c>
       <c r="F82" s="8" t="s">
@@ -2523,19 +2601,19 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B83" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="C83" s="27" t="s">
+      <c r="A83" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B83" s="25">
+        <v>7.0</v>
+      </c>
+      <c r="C83" s="26" t="s">
         <v>113</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E83" s="24" t="s">
+      <c r="E83" s="19" t="s">
         <v>115</v>
       </c>
       <c r="F83" s="8" t="s">
@@ -2543,19 +2621,19 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B84" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="C84" s="27" t="s">
+      <c r="A84" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B84" s="25">
+        <v>7.0</v>
+      </c>
+      <c r="C84" s="26" t="s">
         <v>113</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E84" s="24" t="s">
+      <c r="E84" s="19" t="s">
         <v>116</v>
       </c>
       <c r="F84" s="8" t="s">
@@ -2563,19 +2641,19 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B85" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="C85" s="27" t="s">
+      <c r="A85" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B85" s="25">
+        <v>7.0</v>
+      </c>
+      <c r="C85" s="26" t="s">
         <v>113</v>
       </c>
       <c r="D85" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E85" s="24" t="s">
+      <c r="E85" s="19" t="s">
         <v>117</v>
       </c>
       <c r="F85" s="8" t="s">
@@ -2583,19 +2661,19 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B86" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="C86" s="27" t="s">
+      <c r="A86" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B86" s="25">
+        <v>7.0</v>
+      </c>
+      <c r="C86" s="26" t="s">
         <v>113</v>
       </c>
       <c r="D86" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E86" s="24" t="s">
+      <c r="E86" s="19" t="s">
         <v>118</v>
       </c>
       <c r="F86" s="8" t="s">
@@ -2603,19 +2681,19 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B87" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="C87" s="27" t="s">
+      <c r="A87" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B87" s="25">
+        <v>7.0</v>
+      </c>
+      <c r="C87" s="26" t="s">
         <v>113</v>
       </c>
       <c r="D87" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E87" s="24" t="s">
+      <c r="E87" s="19" t="s">
         <v>119</v>
       </c>
       <c r="F87" s="8" t="s">
@@ -2623,19 +2701,19 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B88" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="C88" s="27" t="s">
+      <c r="A88" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B88" s="25">
+        <v>7.0</v>
+      </c>
+      <c r="C88" s="26" t="s">
         <v>113</v>
       </c>
       <c r="D88" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E88" s="24" t="s">
+      <c r="E88" s="19" t="s">
         <v>120</v>
       </c>
       <c r="F88" s="8" t="s">
@@ -2643,19 +2721,19 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B89" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="C89" s="27" t="s">
+      <c r="A89" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B89" s="25">
+        <v>7.0</v>
+      </c>
+      <c r="C89" s="26" t="s">
         <v>113</v>
       </c>
       <c r="D89" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E89" s="24" t="s">
+      <c r="E89" s="19" t="s">
         <v>121</v>
       </c>
       <c r="F89" s="8" t="s">
@@ -2663,19 +2741,19 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B90" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="C90" s="27" t="s">
+      <c r="A90" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B90" s="25">
+        <v>7.0</v>
+      </c>
+      <c r="C90" s="26" t="s">
         <v>113</v>
       </c>
       <c r="D90" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E90" s="24" t="s">
+      <c r="E90" s="19" t="s">
         <v>122</v>
       </c>
       <c r="F90" s="8" t="s">
@@ -2683,19 +2761,19 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B91" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="C91" s="27" t="s">
+      <c r="A91" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B91" s="25">
+        <v>7.0</v>
+      </c>
+      <c r="C91" s="26" t="s">
         <v>113</v>
       </c>
       <c r="D91" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E91" s="24" t="s">
+      <c r="E91" s="19" t="s">
         <v>123</v>
       </c>
       <c r="F91" s="8" t="s">
@@ -2703,19 +2781,19 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B92" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="C92" s="27" t="s">
+      <c r="A92" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B92" s="25">
+        <v>7.0</v>
+      </c>
+      <c r="C92" s="26" t="s">
         <v>113</v>
       </c>
       <c r="D92" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E92" s="24" t="s">
+      <c r="E92" s="19" t="s">
         <v>124</v>
       </c>
       <c r="F92" s="8" t="s">
@@ -2723,19 +2801,19 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B93" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="C93" s="27" t="s">
+      <c r="A93" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B93" s="25">
+        <v>7.0</v>
+      </c>
+      <c r="C93" s="26" t="s">
         <v>113</v>
       </c>
       <c r="D93" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E93" s="24" t="s">
+      <c r="E93" s="19" t="s">
         <v>125</v>
       </c>
       <c r="F93" s="8" t="s">
@@ -2743,19 +2821,19 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B94" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="C94" s="27" t="s">
+      <c r="A94" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B94" s="25">
+        <v>7.0</v>
+      </c>
+      <c r="C94" s="26" t="s">
         <v>113</v>
       </c>
       <c r="D94" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E94" s="24" t="s">
+      <c r="E94" s="19" t="s">
         <v>126</v>
       </c>
       <c r="F94" s="8" t="s">
@@ -2763,19 +2841,19 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B95" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="C95" s="27" t="s">
+      <c r="A95" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B95" s="25">
+        <v>7.0</v>
+      </c>
+      <c r="C95" s="26" t="s">
         <v>113</v>
       </c>
       <c r="D95" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E95" s="24" t="s">
+      <c r="E95" s="19" t="s">
         <v>127</v>
       </c>
       <c r="F95" s="8" t="s">
@@ -2783,19 +2861,19 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B96" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="C96" s="27" t="s">
+      <c r="A96" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B96" s="25">
+        <v>7.0</v>
+      </c>
+      <c r="C96" s="26" t="s">
         <v>113</v>
       </c>
       <c r="D96" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E96" s="24" t="s">
+      <c r="E96" s="19" t="s">
         <v>128</v>
       </c>
       <c r="F96" s="8" t="s">
@@ -2803,19 +2881,19 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B97" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="C97" s="27" t="s">
+      <c r="A97" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B97" s="25">
+        <v>7.0</v>
+      </c>
+      <c r="C97" s="26" t="s">
         <v>113</v>
       </c>
       <c r="D97" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E97" s="24" t="s">
+      <c r="E97" s="19" t="s">
         <v>129</v>
       </c>
       <c r="F97" s="8" t="s">
@@ -2823,19 +2901,19 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B98" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="C98" s="27" t="s">
+      <c r="A98" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B98" s="25">
+        <v>7.0</v>
+      </c>
+      <c r="C98" s="26" t="s">
         <v>113</v>
       </c>
       <c r="D98" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E98" s="24" t="s">
+      <c r="E98" s="19" t="s">
         <v>130</v>
       </c>
       <c r="F98" s="8" t="s">
@@ -2843,19 +2921,19 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B99" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="C99" s="27" t="s">
+      <c r="A99" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B99" s="25">
+        <v>7.0</v>
+      </c>
+      <c r="C99" s="26" t="s">
         <v>113</v>
       </c>
       <c r="D99" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="E99" s="24" t="s">
+      <c r="E99" s="19" t="s">
         <v>131</v>
       </c>
       <c r="F99" s="8" t="s">
@@ -2863,19 +2941,19 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B100" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="C100" s="27" t="s">
+      <c r="A100" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B100" s="25">
+        <v>7.0</v>
+      </c>
+      <c r="C100" s="26" t="s">
         <v>113</v>
       </c>
       <c r="D100" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E100" s="24" t="s">
+      <c r="E100" s="19" t="s">
         <v>132</v>
       </c>
       <c r="F100" s="8" t="s">
@@ -2883,22 +2961,422 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B101" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="C101" s="27" t="s">
+      <c r="A101" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B101" s="25">
+        <v>7.0</v>
+      </c>
+      <c r="C101" s="26" t="s">
         <v>113</v>
       </c>
       <c r="D101" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E101" s="24" t="s">
+      <c r="E101" s="19" t="s">
         <v>133</v>
       </c>
       <c r="F101" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B102" s="28">
+        <v>7.0</v>
+      </c>
+      <c r="C102" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D102" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B103" s="28">
+        <v>7.0</v>
+      </c>
+      <c r="C103" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D103" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B104" s="28">
+        <v>7.0</v>
+      </c>
+      <c r="C104" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D104" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E104" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B105" s="28">
+        <v>7.0</v>
+      </c>
+      <c r="C105" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D105" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E105" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B106" s="28">
+        <v>7.0</v>
+      </c>
+      <c r="C106" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D106" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E106" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B107" s="28">
+        <v>7.0</v>
+      </c>
+      <c r="C107" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D107" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E107" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B108" s="28">
+        <v>7.0</v>
+      </c>
+      <c r="C108" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D108" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E108" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B109" s="28">
+        <v>7.0</v>
+      </c>
+      <c r="C109" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D109" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E109" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B110" s="28">
+        <v>7.0</v>
+      </c>
+      <c r="C110" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D110" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E110" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B111" s="28">
+        <v>7.0</v>
+      </c>
+      <c r="C111" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D111" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E111" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B112" s="28">
+        <v>7.0</v>
+      </c>
+      <c r="C112" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D112" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E112" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B113" s="28">
+        <v>7.0</v>
+      </c>
+      <c r="C113" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D113" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E113" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B114" s="28">
+        <v>7.0</v>
+      </c>
+      <c r="C114" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D114" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E114" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B115" s="28">
+        <v>7.0</v>
+      </c>
+      <c r="C115" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D115" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E115" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B116" s="28">
+        <v>7.0</v>
+      </c>
+      <c r="C116" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D116" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E116" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B117" s="28">
+        <v>7.0</v>
+      </c>
+      <c r="C117" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D117" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E117" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B118" s="28">
+        <v>7.0</v>
+      </c>
+      <c r="C118" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D118" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E118" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B119" s="28">
+        <v>7.0</v>
+      </c>
+      <c r="C119" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D119" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E119" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B120" s="28">
+        <v>7.0</v>
+      </c>
+      <c r="C120" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D120" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B121" s="28">
+        <v>7.0</v>
+      </c>
+      <c r="C121" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D121" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E121" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="F121" s="8" t="s">
         <v>10</v>
       </c>
     </row>

--- a/refair-server/datasets/FSDataset-2.xlsx
+++ b/refair-server/datasets/FSDataset-2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="176">
   <si>
     <t>Domain Cluster</t>
   </si>
@@ -476,6 +476,69 @@
   </si>
   <si>
     <t>As an advertiser, I want to utilize word embedding algorithms to understand the context and meaning behind user-generated content on social networks, so that I can deliver more relevant and targeted advertisements to users.</t>
+  </si>
+  <si>
+    <t>Social Work</t>
+  </si>
+  <si>
+    <t>As a social worker, I want to employ adversarial learning techniques to detect fraudulent activities targeting social security benefits of disabled individuals, so that I can prevent financial exploitation and uphold their rights.</t>
+  </si>
+  <si>
+    <t>As a social worker, I want to employ CNNs to analyze urban infrastructure and identify barriers to accessibility for persons with disabilities, so that I can advocate for inclusive design and policy changes in public spaces.</t>
+  </si>
+  <si>
+    <t>As a social worker, I want to integrate a conversational agent into our teletherapy platform, capable of understanding and responding to emotional cues, so that I can conduct effective remote counseling sessions and support clients in managing mental health challenges.</t>
+  </si>
+  <si>
+    <t>As a social worker, I want to develop a decision tree model to assess the risk of child abuse based on demographic, familial, and behavioral indicators, so that I can prioritize interventions and protect vulnerable children.</t>
+  </si>
+  <si>
+    <t>As a social worker, I want to deploy document classification techniques to automatically flag confidential reports containing sensitive information about abuse or neglect cases, so that I can ensure compliance with privacy regulations and protect client confidentiality.</t>
+  </si>
+  <si>
+    <t>As a social worker, I want to leverage entity extraction to extract financial details (e.g., income, assets) from financial assistance applications and support documents, so that I can accurately assess eligibility for welfare benefits and determine appropriate support levels.</t>
+  </si>
+  <si>
+    <t>As a social worker, I want to perform feature selection on demographic and behavioral data of at-risk children to identify the most predictive factors of abuse and neglect, so that I can prioritize interventions and ensure child safety effectively.</t>
+  </si>
+  <si>
+    <t>As a social worker, I want to mitigate class imbalance in data related to human trafficking incidents by employing sampling methods and algorithmic adjustments, enabling accurate identification and support for victims who are often underrepresented in available datasets.</t>
+  </si>
+  <si>
+    <t>As a social worker, I want to apply KNN algorithms to identify similar historical cases of child neglect or abuse based on textual case descriptions, so that I can learn from past interventions and tailor strategies for current cases effectively.</t>
+  </si>
+  <si>
+    <t>As a social worker, I want to extract keywords from online forums and social media discussions related to social services to understand public perceptions and concerns, enabling me to address misconceptions and improve community engagement.</t>
+  </si>
+  <si>
+    <t>As a social worker, I want to utilize multi-label classification to categorize the specific needs (e.g., legal assistance, shelter, counseling) of victims of domestic violence based on their individual circumstances, so that I can offer personalized support services effectively.</t>
+  </si>
+  <si>
+    <t>As a social worker, I want to employ neural networks to analyze audio transcripts of therapy sessions to detect changes in sentiment and emotional states among clients, so that I can monitor progress and adjust therapeutic approaches accordingly.</t>
+  </si>
+  <si>
+    <t>As a social worker, I want to apply random forest analysis to evaluate the effectiveness of rehabilitation programs for substance abuse by analyzing client progress, treatment adherence, and socio-economic factors, so that I can refine program strategies and improve client outcomes.</t>
+  </si>
+  <si>
+    <t>As a social worker, I want to use semantic similarity algorithms to retrieve relevant legal documents and case precedents based on client queries and case specifics, so that I can provide accurate legal advice and advocacy support efficiently.</t>
+  </si>
+  <si>
+    <t>As a social worker, I want to use sentiment analysis on transcripts of crisis hotline calls to detect emotional states (e.g., distress, calmness) of callers in real-time, so that I can prioritize and provide appropriate support and intervention.</t>
+  </si>
+  <si>
+    <t>As a social worker, I want to dictate case notes using speech-to-text software during home visits and client meetings, so that I can maintain detailed records in a timely manner and spend more time on direct client interactions.</t>
+  </si>
+  <si>
+    <t>As a social worker, I want to categorize community feedback and survey responses regarding local social issues (e.g., homelessness, substance abuse) using text categorization techniques, so that I can identify priority areas for intervention and advocacy efforts.</t>
+  </si>
+  <si>
+    <t>As a social work planner, I want to cluster geographic areas based on socio-economic indicators and accessibility to social services (e.g., healthcare, childcare), so that I can prioritize areas with the greatest need for infrastructure and support development initiatives.</t>
+  </si>
+  <si>
+    <t>As a crisis hotline operator, I want to utilize voice recognition to automatically log and categorize incoming calls based on their urgency and nature (e.g., suicide intervention, domestic violence), so that I can prioritize responses effectively.</t>
+  </si>
+  <si>
+    <t>As a social worker, I want to use word embedding techniques to analyze client feedback and reviews to identify recurring themes and sentiments, so that I can improve service delivery and address client concerns effectively.</t>
   </si>
 </sst>
 </file>
@@ -533,7 +596,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -582,8 +645,14 @@
         <bgColor rgb="FFE69138"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB45F06"/>
+        <bgColor rgb="FFB45F06"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border/>
     <border>
       <left style="thin">
@@ -639,11 +708,27 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -704,7 +789,10 @@
     <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -715,6 +803,9 @@
     </xf>
     <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -734,7 +825,16 @@
     <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1870,7 +1970,7 @@
       <c r="C46" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E46" s="19" t="s">
@@ -1890,7 +1990,7 @@
       <c r="C47" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="21" t="s">
         <v>25</v>
       </c>
       <c r="E47" s="19" t="s">
@@ -1910,7 +2010,7 @@
       <c r="C48" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D48" s="21" t="s">
         <v>28</v>
       </c>
       <c r="E48" s="19" t="s">
@@ -1930,7 +2030,7 @@
       <c r="C49" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="21" t="s">
         <v>31</v>
       </c>
       <c r="E49" s="19" t="s">
@@ -1950,7 +2050,7 @@
       <c r="C50" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D50" s="21" t="s">
         <v>34</v>
       </c>
       <c r="E50" s="19" t="s">
@@ -1970,7 +2070,7 @@
       <c r="C51" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="21" t="s">
         <v>37</v>
       </c>
       <c r="E51" s="19" t="s">
@@ -1990,7 +2090,7 @@
       <c r="C52" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="D52" s="21" t="s">
         <v>40</v>
       </c>
       <c r="E52" s="19" t="s">
@@ -2010,7 +2110,7 @@
       <c r="C53" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D53" s="20" t="s">
+      <c r="D53" s="21" t="s">
         <v>43</v>
       </c>
       <c r="E53" s="19" t="s">
@@ -2030,7 +2130,7 @@
       <c r="C54" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D54" s="20" t="s">
+      <c r="D54" s="21" t="s">
         <v>46</v>
       </c>
       <c r="E54" s="19" t="s">
@@ -2050,7 +2150,7 @@
       <c r="C55" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="20" t="s">
+      <c r="D55" s="21" t="s">
         <v>49</v>
       </c>
       <c r="E55" s="19" t="s">
@@ -2070,7 +2170,7 @@
       <c r="C56" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D56" s="20" t="s">
+      <c r="D56" s="21" t="s">
         <v>52</v>
       </c>
       <c r="E56" s="19" t="s">
@@ -2090,7 +2190,7 @@
       <c r="C57" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D57" s="20" t="s">
+      <c r="D57" s="21" t="s">
         <v>55</v>
       </c>
       <c r="E57" s="19" t="s">
@@ -2110,7 +2210,7 @@
       <c r="C58" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D58" s="20" t="s">
+      <c r="D58" s="21" t="s">
         <v>58</v>
       </c>
       <c r="E58" s="19" t="s">
@@ -2130,7 +2230,7 @@
       <c r="C59" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D59" s="20" t="s">
+      <c r="D59" s="21" t="s">
         <v>61</v>
       </c>
       <c r="E59" s="19" t="s">
@@ -2150,7 +2250,7 @@
       <c r="C60" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D60" s="20" t="s">
+      <c r="D60" s="21" t="s">
         <v>64</v>
       </c>
       <c r="E60" s="19" t="s">
@@ -2170,7 +2270,7 @@
       <c r="C61" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D61" s="20" t="s">
+      <c r="D61" s="21" t="s">
         <v>67</v>
       </c>
       <c r="E61" s="19" t="s">
@@ -2181,16 +2281,16 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B62" s="22">
-        <v>7.0</v>
-      </c>
-      <c r="C62" s="23" t="s">
+      <c r="A62" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" s="23">
+        <v>7.0</v>
+      </c>
+      <c r="C62" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D62" s="16" t="s">
+      <c r="D62" s="25" t="s">
         <v>8</v>
       </c>
       <c r="E62" s="19" t="s">
@@ -2201,13 +2301,13 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B63" s="22">
-        <v>7.0</v>
-      </c>
-      <c r="C63" s="23" t="s">
+      <c r="A63" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" s="23">
+        <v>7.0</v>
+      </c>
+      <c r="C63" s="24" t="s">
         <v>92</v>
       </c>
       <c r="D63" s="16" t="s">
@@ -2221,13 +2321,13 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B64" s="22">
-        <v>7.0</v>
-      </c>
-      <c r="C64" s="23" t="s">
+      <c r="A64" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="23">
+        <v>7.0</v>
+      </c>
+      <c r="C64" s="24" t="s">
         <v>92</v>
       </c>
       <c r="D64" s="16" t="s">
@@ -2241,13 +2341,13 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" s="22">
-        <v>7.0</v>
-      </c>
-      <c r="C65" s="23" t="s">
+      <c r="A65" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="23">
+        <v>7.0</v>
+      </c>
+      <c r="C65" s="24" t="s">
         <v>92</v>
       </c>
       <c r="D65" s="16" t="s">
@@ -2261,13 +2361,13 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B66" s="22">
-        <v>7.0</v>
-      </c>
-      <c r="C66" s="23" t="s">
+      <c r="A66" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="23">
+        <v>7.0</v>
+      </c>
+      <c r="C66" s="24" t="s">
         <v>92</v>
       </c>
       <c r="D66" s="16" t="s">
@@ -2281,16 +2381,16 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" s="22">
-        <v>7.0</v>
-      </c>
-      <c r="C67" s="23" t="s">
+      <c r="A67" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="23">
+        <v>7.0</v>
+      </c>
+      <c r="C67" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D67" s="20" t="s">
+      <c r="D67" s="21" t="s">
         <v>25</v>
       </c>
       <c r="E67" s="19" t="s">
@@ -2301,16 +2401,16 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68" s="22">
-        <v>7.0</v>
-      </c>
-      <c r="C68" s="23" t="s">
+      <c r="A68" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="23">
+        <v>7.0</v>
+      </c>
+      <c r="C68" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D68" s="20" t="s">
+      <c r="D68" s="21" t="s">
         <v>28</v>
       </c>
       <c r="E68" s="19" t="s">
@@ -2321,16 +2421,16 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" s="22">
-        <v>7.0</v>
-      </c>
-      <c r="C69" s="23" t="s">
+      <c r="A69" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="23">
+        <v>7.0</v>
+      </c>
+      <c r="C69" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D69" s="20" t="s">
+      <c r="D69" s="21" t="s">
         <v>31</v>
       </c>
       <c r="E69" s="19" t="s">
@@ -2341,16 +2441,16 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" s="22">
-        <v>7.0</v>
-      </c>
-      <c r="C70" s="23" t="s">
+      <c r="A70" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="23">
+        <v>7.0</v>
+      </c>
+      <c r="C70" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D70" s="20" t="s">
+      <c r="D70" s="21" t="s">
         <v>34</v>
       </c>
       <c r="E70" s="19" t="s">
@@ -2361,16 +2461,16 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71" s="22">
-        <v>7.0</v>
-      </c>
-      <c r="C71" s="23" t="s">
+      <c r="A71" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="23">
+        <v>7.0</v>
+      </c>
+      <c r="C71" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D71" s="20" t="s">
+      <c r="D71" s="21" t="s">
         <v>37</v>
       </c>
       <c r="E71" s="19" t="s">
@@ -2381,16 +2481,16 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72" s="22">
-        <v>7.0</v>
-      </c>
-      <c r="C72" s="23" t="s">
+      <c r="A72" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="23">
+        <v>7.0</v>
+      </c>
+      <c r="C72" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D72" s="20" t="s">
+      <c r="D72" s="21" t="s">
         <v>40</v>
       </c>
       <c r="E72" s="19" t="s">
@@ -2401,16 +2501,16 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B73" s="22">
-        <v>7.0</v>
-      </c>
-      <c r="C73" s="23" t="s">
+      <c r="A73" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73" s="23">
+        <v>7.0</v>
+      </c>
+      <c r="C73" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D73" s="20" t="s">
+      <c r="D73" s="21" t="s">
         <v>43</v>
       </c>
       <c r="E73" s="19" t="s">
@@ -2421,16 +2521,16 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B74" s="22">
-        <v>7.0</v>
-      </c>
-      <c r="C74" s="23" t="s">
+      <c r="A74" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74" s="23">
+        <v>7.0</v>
+      </c>
+      <c r="C74" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D74" s="20" t="s">
+      <c r="D74" s="21" t="s">
         <v>46</v>
       </c>
       <c r="E74" s="19" t="s">
@@ -2441,16 +2541,16 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B75" s="22">
-        <v>7.0</v>
-      </c>
-      <c r="C75" s="23" t="s">
+      <c r="A75" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B75" s="23">
+        <v>7.0</v>
+      </c>
+      <c r="C75" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D75" s="20" t="s">
+      <c r="D75" s="21" t="s">
         <v>49</v>
       </c>
       <c r="E75" s="19" t="s">
@@ -2461,16 +2561,16 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B76" s="22">
-        <v>7.0</v>
-      </c>
-      <c r="C76" s="23" t="s">
+      <c r="A76" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B76" s="23">
+        <v>7.0</v>
+      </c>
+      <c r="C76" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D76" s="20" t="s">
+      <c r="D76" s="21" t="s">
         <v>52</v>
       </c>
       <c r="E76" s="19" t="s">
@@ -2481,16 +2581,16 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B77" s="22">
-        <v>7.0</v>
-      </c>
-      <c r="C77" s="23" t="s">
+      <c r="A77" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B77" s="23">
+        <v>7.0</v>
+      </c>
+      <c r="C77" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D77" s="20" t="s">
+      <c r="D77" s="21" t="s">
         <v>55</v>
       </c>
       <c r="E77" s="19" t="s">
@@ -2501,16 +2601,16 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B78" s="22">
-        <v>7.0</v>
-      </c>
-      <c r="C78" s="23" t="s">
+      <c r="A78" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B78" s="23">
+        <v>7.0</v>
+      </c>
+      <c r="C78" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D78" s="20" t="s">
+      <c r="D78" s="21" t="s">
         <v>58</v>
       </c>
       <c r="E78" s="19" t="s">
@@ -2521,16 +2621,16 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B79" s="22">
-        <v>7.0</v>
-      </c>
-      <c r="C79" s="23" t="s">
+      <c r="A79" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B79" s="23">
+        <v>7.0</v>
+      </c>
+      <c r="C79" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D79" s="20" t="s">
+      <c r="D79" s="21" t="s">
         <v>61</v>
       </c>
       <c r="E79" s="19" t="s">
@@ -2541,16 +2641,16 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B80" s="22">
-        <v>7.0</v>
-      </c>
-      <c r="C80" s="23" t="s">
+      <c r="A80" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B80" s="23">
+        <v>7.0</v>
+      </c>
+      <c r="C80" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D80" s="20" t="s">
+      <c r="D80" s="21" t="s">
         <v>64</v>
       </c>
       <c r="E80" s="19" t="s">
@@ -2561,16 +2661,16 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B81" s="22">
-        <v>7.0</v>
-      </c>
-      <c r="C81" s="23" t="s">
+      <c r="A81" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B81" s="23">
+        <v>7.0</v>
+      </c>
+      <c r="C81" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D81" s="20" t="s">
+      <c r="D81" s="21" t="s">
         <v>67</v>
       </c>
       <c r="E81" s="19" t="s">
@@ -2581,13 +2681,13 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B82" s="25">
-        <v>7.0</v>
-      </c>
-      <c r="C82" s="26" t="s">
+      <c r="A82" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B82" s="27">
+        <v>7.0</v>
+      </c>
+      <c r="C82" s="28" t="s">
         <v>113</v>
       </c>
       <c r="D82" s="16" t="s">
@@ -2601,13 +2701,13 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B83" s="25">
-        <v>7.0</v>
-      </c>
-      <c r="C83" s="26" t="s">
+      <c r="A83" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B83" s="27">
+        <v>7.0</v>
+      </c>
+      <c r="C83" s="28" t="s">
         <v>113</v>
       </c>
       <c r="D83" s="16" t="s">
@@ -2621,13 +2721,13 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B84" s="25">
-        <v>7.0</v>
-      </c>
-      <c r="C84" s="26" t="s">
+      <c r="A84" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B84" s="27">
+        <v>7.0</v>
+      </c>
+      <c r="C84" s="28" t="s">
         <v>113</v>
       </c>
       <c r="D84" s="16" t="s">
@@ -2641,13 +2741,13 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B85" s="25">
-        <v>7.0</v>
-      </c>
-      <c r="C85" s="26" t="s">
+      <c r="A85" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B85" s="27">
+        <v>7.0</v>
+      </c>
+      <c r="C85" s="28" t="s">
         <v>113</v>
       </c>
       <c r="D85" s="16" t="s">
@@ -2661,13 +2761,13 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B86" s="25">
-        <v>7.0</v>
-      </c>
-      <c r="C86" s="26" t="s">
+      <c r="A86" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B86" s="27">
+        <v>7.0</v>
+      </c>
+      <c r="C86" s="28" t="s">
         <v>113</v>
       </c>
       <c r="D86" s="16" t="s">
@@ -2681,16 +2781,16 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B87" s="25">
-        <v>7.0</v>
-      </c>
-      <c r="C87" s="26" t="s">
+      <c r="A87" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B87" s="27">
+        <v>7.0</v>
+      </c>
+      <c r="C87" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="D87" s="20" t="s">
+      <c r="D87" s="21" t="s">
         <v>25</v>
       </c>
       <c r="E87" s="19" t="s">
@@ -2701,16 +2801,16 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B88" s="25">
-        <v>7.0</v>
-      </c>
-      <c r="C88" s="26" t="s">
+      <c r="A88" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B88" s="27">
+        <v>7.0</v>
+      </c>
+      <c r="C88" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="D88" s="20" t="s">
+      <c r="D88" s="21" t="s">
         <v>28</v>
       </c>
       <c r="E88" s="19" t="s">
@@ -2721,16 +2821,16 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B89" s="25">
-        <v>7.0</v>
-      </c>
-      <c r="C89" s="26" t="s">
+      <c r="A89" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B89" s="27">
+        <v>7.0</v>
+      </c>
+      <c r="C89" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="D89" s="20" t="s">
+      <c r="D89" s="21" t="s">
         <v>31</v>
       </c>
       <c r="E89" s="19" t="s">
@@ -2741,16 +2841,16 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B90" s="25">
-        <v>7.0</v>
-      </c>
-      <c r="C90" s="26" t="s">
+      <c r="A90" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B90" s="27">
+        <v>7.0</v>
+      </c>
+      <c r="C90" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="D90" s="20" t="s">
+      <c r="D90" s="21" t="s">
         <v>34</v>
       </c>
       <c r="E90" s="19" t="s">
@@ -2761,16 +2861,16 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B91" s="25">
-        <v>7.0</v>
-      </c>
-      <c r="C91" s="26" t="s">
+      <c r="A91" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B91" s="27">
+        <v>7.0</v>
+      </c>
+      <c r="C91" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="D91" s="20" t="s">
+      <c r="D91" s="21" t="s">
         <v>37</v>
       </c>
       <c r="E91" s="19" t="s">
@@ -2781,16 +2881,16 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B92" s="25">
-        <v>7.0</v>
-      </c>
-      <c r="C92" s="26" t="s">
+      <c r="A92" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B92" s="27">
+        <v>7.0</v>
+      </c>
+      <c r="C92" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="D92" s="20" t="s">
+      <c r="D92" s="21" t="s">
         <v>40</v>
       </c>
       <c r="E92" s="19" t="s">
@@ -2801,16 +2901,16 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B93" s="25">
-        <v>7.0</v>
-      </c>
-      <c r="C93" s="26" t="s">
+      <c r="A93" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B93" s="27">
+        <v>7.0</v>
+      </c>
+      <c r="C93" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="D93" s="20" t="s">
+      <c r="D93" s="21" t="s">
         <v>43</v>
       </c>
       <c r="E93" s="19" t="s">
@@ -2821,16 +2921,16 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B94" s="25">
-        <v>7.0</v>
-      </c>
-      <c r="C94" s="26" t="s">
+      <c r="A94" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B94" s="27">
+        <v>7.0</v>
+      </c>
+      <c r="C94" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="D94" s="20" t="s">
+      <c r="D94" s="21" t="s">
         <v>46</v>
       </c>
       <c r="E94" s="19" t="s">
@@ -2841,16 +2941,16 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B95" s="25">
-        <v>7.0</v>
-      </c>
-      <c r="C95" s="26" t="s">
+      <c r="A95" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B95" s="27">
+        <v>7.0</v>
+      </c>
+      <c r="C95" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="D95" s="20" t="s">
+      <c r="D95" s="21" t="s">
         <v>49</v>
       </c>
       <c r="E95" s="19" t="s">
@@ -2861,16 +2961,16 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B96" s="25">
-        <v>7.0</v>
-      </c>
-      <c r="C96" s="26" t="s">
+      <c r="A96" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B96" s="27">
+        <v>7.0</v>
+      </c>
+      <c r="C96" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="D96" s="20" t="s">
+      <c r="D96" s="21" t="s">
         <v>52</v>
       </c>
       <c r="E96" s="19" t="s">
@@ -2881,16 +2981,16 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B97" s="25">
-        <v>7.0</v>
-      </c>
-      <c r="C97" s="26" t="s">
+      <c r="A97" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B97" s="27">
+        <v>7.0</v>
+      </c>
+      <c r="C97" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="D97" s="20" t="s">
+      <c r="D97" s="21" t="s">
         <v>55</v>
       </c>
       <c r="E97" s="19" t="s">
@@ -2901,16 +3001,16 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B98" s="25">
-        <v>7.0</v>
-      </c>
-      <c r="C98" s="26" t="s">
+      <c r="A98" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B98" s="27">
+        <v>7.0</v>
+      </c>
+      <c r="C98" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="D98" s="20" t="s">
+      <c r="D98" s="21" t="s">
         <v>58</v>
       </c>
       <c r="E98" s="19" t="s">
@@ -2921,16 +3021,16 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B99" s="25">
-        <v>7.0</v>
-      </c>
-      <c r="C99" s="26" t="s">
+      <c r="A99" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B99" s="27">
+        <v>7.0</v>
+      </c>
+      <c r="C99" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="D99" s="20" t="s">
+      <c r="D99" s="21" t="s">
         <v>61</v>
       </c>
       <c r="E99" s="19" t="s">
@@ -2941,16 +3041,16 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B100" s="25">
-        <v>7.0</v>
-      </c>
-      <c r="C100" s="26" t="s">
+      <c r="A100" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B100" s="27">
+        <v>7.0</v>
+      </c>
+      <c r="C100" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="D100" s="20" t="s">
+      <c r="D100" s="21" t="s">
         <v>64</v>
       </c>
       <c r="E100" s="19" t="s">
@@ -2961,16 +3061,16 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B101" s="25">
-        <v>7.0</v>
-      </c>
-      <c r="C101" s="26" t="s">
+      <c r="A101" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B101" s="27">
+        <v>7.0</v>
+      </c>
+      <c r="C101" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="D101" s="20" t="s">
+      <c r="D101" s="21" t="s">
         <v>67</v>
       </c>
       <c r="E101" s="19" t="s">
@@ -2981,19 +3081,19 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B102" s="28">
-        <v>7.0</v>
-      </c>
-      <c r="C102" s="29" t="s">
+      <c r="A102" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B102" s="30">
+        <v>7.0</v>
+      </c>
+      <c r="C102" s="31" t="s">
         <v>134</v>
       </c>
       <c r="D102" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E102" s="30" t="s">
+      <c r="E102" s="18" t="s">
         <v>135</v>
       </c>
       <c r="F102" s="8" t="s">
@@ -3001,19 +3101,19 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B103" s="28">
-        <v>7.0</v>
-      </c>
-      <c r="C103" s="29" t="s">
+      <c r="A103" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B103" s="30">
+        <v>7.0</v>
+      </c>
+      <c r="C103" s="31" t="s">
         <v>134</v>
       </c>
       <c r="D103" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E103" s="30" t="s">
+      <c r="E103" s="19" t="s">
         <v>136</v>
       </c>
       <c r="F103" s="8" t="s">
@@ -3021,19 +3121,19 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B104" s="28">
-        <v>7.0</v>
-      </c>
-      <c r="C104" s="29" t="s">
+      <c r="A104" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B104" s="30">
+        <v>7.0</v>
+      </c>
+      <c r="C104" s="31" t="s">
         <v>134</v>
       </c>
       <c r="D104" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E104" s="30" t="s">
+      <c r="E104" s="19" t="s">
         <v>137</v>
       </c>
       <c r="F104" s="8" t="s">
@@ -3041,19 +3141,19 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B105" s="28">
-        <v>7.0</v>
-      </c>
-      <c r="C105" s="29" t="s">
+      <c r="A105" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B105" s="30">
+        <v>7.0</v>
+      </c>
+      <c r="C105" s="31" t="s">
         <v>134</v>
       </c>
       <c r="D105" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E105" s="30" t="s">
+      <c r="E105" s="19" t="s">
         <v>138</v>
       </c>
       <c r="F105" s="8" t="s">
@@ -3061,19 +3161,19 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B106" s="28">
-        <v>7.0</v>
-      </c>
-      <c r="C106" s="29" t="s">
+      <c r="A106" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B106" s="30">
+        <v>7.0</v>
+      </c>
+      <c r="C106" s="31" t="s">
         <v>134</v>
       </c>
       <c r="D106" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E106" s="30" t="s">
+      <c r="E106" s="19" t="s">
         <v>139</v>
       </c>
       <c r="F106" s="8" t="s">
@@ -3081,19 +3181,19 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B107" s="28">
-        <v>7.0</v>
-      </c>
-      <c r="C107" s="29" t="s">
+      <c r="A107" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B107" s="30">
+        <v>7.0</v>
+      </c>
+      <c r="C107" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="D107" s="20" t="s">
+      <c r="D107" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E107" s="30" t="s">
+      <c r="E107" s="19" t="s">
         <v>140</v>
       </c>
       <c r="F107" s="8" t="s">
@@ -3101,19 +3201,19 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B108" s="28">
-        <v>7.0</v>
-      </c>
-      <c r="C108" s="29" t="s">
+      <c r="A108" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B108" s="30">
+        <v>7.0</v>
+      </c>
+      <c r="C108" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="D108" s="20" t="s">
+      <c r="D108" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E108" s="30" t="s">
+      <c r="E108" s="19" t="s">
         <v>141</v>
       </c>
       <c r="F108" s="8" t="s">
@@ -3121,19 +3221,19 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B109" s="28">
-        <v>7.0</v>
-      </c>
-      <c r="C109" s="29" t="s">
+      <c r="A109" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B109" s="30">
+        <v>7.0</v>
+      </c>
+      <c r="C109" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="D109" s="20" t="s">
+      <c r="D109" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E109" s="30" t="s">
+      <c r="E109" s="19" t="s">
         <v>142</v>
       </c>
       <c r="F109" s="8" t="s">
@@ -3141,19 +3241,19 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B110" s="28">
-        <v>7.0</v>
-      </c>
-      <c r="C110" s="29" t="s">
+      <c r="A110" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B110" s="30">
+        <v>7.0</v>
+      </c>
+      <c r="C110" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="D110" s="20" t="s">
+      <c r="D110" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E110" s="30" t="s">
+      <c r="E110" s="19" t="s">
         <v>143</v>
       </c>
       <c r="F110" s="8" t="s">
@@ -3161,19 +3261,19 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B111" s="28">
-        <v>7.0</v>
-      </c>
-      <c r="C111" s="29" t="s">
+      <c r="A111" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B111" s="30">
+        <v>7.0</v>
+      </c>
+      <c r="C111" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="D111" s="20" t="s">
+      <c r="D111" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E111" s="30" t="s">
+      <c r="E111" s="19" t="s">
         <v>144</v>
       </c>
       <c r="F111" s="8" t="s">
@@ -3181,19 +3281,19 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B112" s="28">
-        <v>7.0</v>
-      </c>
-      <c r="C112" s="29" t="s">
+      <c r="A112" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B112" s="30">
+        <v>7.0</v>
+      </c>
+      <c r="C112" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="D112" s="20" t="s">
+      <c r="D112" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E112" s="30" t="s">
+      <c r="E112" s="19" t="s">
         <v>145</v>
       </c>
       <c r="F112" s="8" t="s">
@@ -3201,19 +3301,19 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B113" s="28">
-        <v>7.0</v>
-      </c>
-      <c r="C113" s="29" t="s">
+      <c r="A113" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B113" s="30">
+        <v>7.0</v>
+      </c>
+      <c r="C113" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="D113" s="20" t="s">
+      <c r="D113" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E113" s="30" t="s">
+      <c r="E113" s="19" t="s">
         <v>146</v>
       </c>
       <c r="F113" s="8" t="s">
@@ -3221,19 +3321,19 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B114" s="28">
-        <v>7.0</v>
-      </c>
-      <c r="C114" s="29" t="s">
+      <c r="A114" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B114" s="30">
+        <v>7.0</v>
+      </c>
+      <c r="C114" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="D114" s="20" t="s">
+      <c r="D114" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E114" s="30" t="s">
+      <c r="E114" s="19" t="s">
         <v>147</v>
       </c>
       <c r="F114" s="8" t="s">
@@ -3241,19 +3341,19 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B115" s="28">
-        <v>7.0</v>
-      </c>
-      <c r="C115" s="29" t="s">
+      <c r="A115" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B115" s="30">
+        <v>7.0</v>
+      </c>
+      <c r="C115" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="D115" s="20" t="s">
+      <c r="D115" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E115" s="30" t="s">
+      <c r="E115" s="19" t="s">
         <v>148</v>
       </c>
       <c r="F115" s="8" t="s">
@@ -3261,19 +3361,19 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B116" s="28">
-        <v>7.0</v>
-      </c>
-      <c r="C116" s="29" t="s">
+      <c r="A116" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B116" s="30">
+        <v>7.0</v>
+      </c>
+      <c r="C116" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="D116" s="20" t="s">
+      <c r="D116" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E116" s="30" t="s">
+      <c r="E116" s="19" t="s">
         <v>149</v>
       </c>
       <c r="F116" s="8" t="s">
@@ -3281,19 +3381,19 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B117" s="28">
-        <v>7.0</v>
-      </c>
-      <c r="C117" s="29" t="s">
+      <c r="A117" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B117" s="30">
+        <v>7.0</v>
+      </c>
+      <c r="C117" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="D117" s="20" t="s">
+      <c r="D117" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E117" s="30" t="s">
+      <c r="E117" s="19" t="s">
         <v>150</v>
       </c>
       <c r="F117" s="8" t="s">
@@ -3301,19 +3401,19 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B118" s="28">
-        <v>7.0</v>
-      </c>
-      <c r="C118" s="29" t="s">
+      <c r="A118" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B118" s="30">
+        <v>7.0</v>
+      </c>
+      <c r="C118" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="D118" s="20" t="s">
+      <c r="D118" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E118" s="30" t="s">
+      <c r="E118" s="19" t="s">
         <v>151</v>
       </c>
       <c r="F118" s="8" t="s">
@@ -3321,19 +3421,19 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B119" s="28">
-        <v>7.0</v>
-      </c>
-      <c r="C119" s="29" t="s">
+      <c r="A119" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B119" s="30">
+        <v>7.0</v>
+      </c>
+      <c r="C119" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="D119" s="20" t="s">
+      <c r="D119" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="E119" s="30" t="s">
+      <c r="E119" s="19" t="s">
         <v>152</v>
       </c>
       <c r="F119" s="8" t="s">
@@ -3341,19 +3441,19 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B120" s="28">
-        <v>7.0</v>
-      </c>
-      <c r="C120" s="29" t="s">
+      <c r="A120" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B120" s="30">
+        <v>7.0</v>
+      </c>
+      <c r="C120" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="D120" s="20" t="s">
+      <c r="D120" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E120" s="30" t="s">
+      <c r="E120" s="19" t="s">
         <v>153</v>
       </c>
       <c r="F120" s="8" t="s">
@@ -3361,22 +3461,422 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B121" s="28">
-        <v>7.0</v>
-      </c>
-      <c r="C121" s="29" t="s">
+      <c r="A121" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B121" s="30">
+        <v>7.0</v>
+      </c>
+      <c r="C121" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="D121" s="20" t="s">
+      <c r="D121" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E121" s="30" t="s">
+      <c r="E121" s="32" t="s">
         <v>154</v>
       </c>
       <c r="F121" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B122" s="34">
+        <v>7.0</v>
+      </c>
+      <c r="C122" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D122" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B123" s="34">
+        <v>7.0</v>
+      </c>
+      <c r="C123" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D123" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B124" s="34">
+        <v>7.0</v>
+      </c>
+      <c r="C124" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D124" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E124" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B125" s="34">
+        <v>7.0</v>
+      </c>
+      <c r="C125" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D125" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E125" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B126" s="34">
+        <v>7.0</v>
+      </c>
+      <c r="C126" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D126" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E126" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B127" s="34">
+        <v>7.0</v>
+      </c>
+      <c r="C127" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D127" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E127" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B128" s="34">
+        <v>7.0</v>
+      </c>
+      <c r="C128" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D128" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E128" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B129" s="34">
+        <v>7.0</v>
+      </c>
+      <c r="C129" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D129" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E129" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B130" s="34">
+        <v>7.0</v>
+      </c>
+      <c r="C130" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D130" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E130" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B131" s="34">
+        <v>7.0</v>
+      </c>
+      <c r="C131" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D131" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E131" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B132" s="34">
+        <v>7.0</v>
+      </c>
+      <c r="C132" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D132" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E132" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B133" s="34">
+        <v>7.0</v>
+      </c>
+      <c r="C133" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D133" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E133" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B134" s="34">
+        <v>7.0</v>
+      </c>
+      <c r="C134" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D134" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E134" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B135" s="34">
+        <v>7.0</v>
+      </c>
+      <c r="C135" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D135" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E135" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B136" s="34">
+        <v>7.0</v>
+      </c>
+      <c r="C136" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D136" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E136" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B137" s="34">
+        <v>7.0</v>
+      </c>
+      <c r="C137" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D137" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E137" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B138" s="34">
+        <v>7.0</v>
+      </c>
+      <c r="C138" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D138" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E138" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B139" s="34">
+        <v>7.0</v>
+      </c>
+      <c r="C139" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D139" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E139" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="F139" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B140" s="34">
+        <v>7.0</v>
+      </c>
+      <c r="C140" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D140" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E140" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B141" s="34">
+        <v>7.0</v>
+      </c>
+      <c r="C141" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D141" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E141" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F141" s="8" t="s">
         <v>10</v>
       </c>
     </row>

--- a/refair-server/datasets/FSDataset-2.xlsx
+++ b/refair-server/datasets/FSDataset-2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="197">
   <si>
     <t>Domain Cluster</t>
   </si>
@@ -539,6 +539,69 @@
   </si>
   <si>
     <t>As a social worker, I want to use word embedding techniques to analyze client feedback and reviews to identify recurring themes and sentiments, so that I can improve service delivery and address client concerns effectively.</t>
+  </si>
+  <si>
+    <t>Sociology</t>
+  </si>
+  <si>
+    <t>As a social scientist, I want to employ adversarial learning models to identify and mitigate gender or racial biases in hiring algorithms used by companies, so that I can promote equality and fairness in employment practices.</t>
+  </si>
+  <si>
+    <t>As a researcher in sociology, I want to use CNNs to classify and analyze urban planning images to understand the impact of infrastructure changes on community dynamics and social interactions.</t>
+  </si>
+  <si>
+    <t>As an educator in sociology, I want to integrate a conversational agent into virtual classrooms to facilitate discussions on sensitive topics like race, gender, and inequality, so that I can foster a respectful and open learning environment among students.</t>
+  </si>
+  <si>
+    <t>As a social scientist, I want to employ decision trees to analyze patterns of neighborhood segregation and integration based on demographic and economic variables, so that I can understand dynamics of urban social structure.</t>
+  </si>
+  <si>
+    <t>As a sociologist, I want to use document classification algorithms to categorize and analyze historical texts from different social movements, so that I can understand the evolution of ideologies and strategies within these movements over time.</t>
+  </si>
+  <si>
+    <t>As a social scientist, I want to use entity extraction models to identify and classify mentions of social organizations and their activities in newspaper articles, so that I can study their roles in community advocacy and social change.</t>
+  </si>
+  <si>
+    <t>As a sociologist, I want to perform feature selection on demographic data collected from surveys to identify the most influential factors contributing to income inequality, so that I can advise policymakers on targeted interventions to reduce economic disparities.</t>
+  </si>
+  <si>
+    <t>As a sociologist, I want to address the challenge of an imbalanced dataset in studying public opinion on controversial social issues, such as gun control or immigration, so that I can ensure that minority viewpoints are accurately represented in my research findings.</t>
+  </si>
+  <si>
+    <t>As a social scientist, I want to use k-Nearest Neighbor to analyze patterns in social network data, identifying clusters of individuals with similar interaction patterns, to understand the formation of social groups and networks.</t>
+  </si>
+  <si>
+    <t>As a social scientist, I want to use keyword extraction algorithms to analyze social media posts related to public protests, so that I can identify common grievances and sentiments driving collective action among participants.</t>
+  </si>
+  <si>
+    <t>As a social scientist, I want to apply multi-label classification to analyze online forum discussions on environmental activism, categorizing posts based on multiple environmental concerns such as pollution, climate change, and biodiversity loss, so that I can map out diverse perspectives within the movement.</t>
+  </si>
+  <si>
+    <t>As a social scientist, I want to develop a neural network model to predict voting behavior based on historical electoral data and socio-political factors, so that I can forecast election outcomes and understand voter dynamics.</t>
+  </si>
+  <si>
+    <t>As a social scientist, I want to utilize a random forest model to analyze data from social media platforms to identify patterns in public discourse on climate change, so that I can map out public opinion and potential barriers to collective action.</t>
+  </si>
+  <si>
+    <t>As a sociologist, I want to measure semantic similarity between interviews with participants from different cultural backgrounds to understand shared values and perceptions of societal norms, so that I can promote cross-cultural understanding and integration.</t>
+  </si>
+  <si>
+    <t>As a sociologist, I want to perform sentiment analysis on social media discussions related to mental health to understand public perceptions and stigma surrounding mental illness, so that I can advocate for improved mental health policies and support systems.</t>
+  </si>
+  <si>
+    <t>As a social scientist, I want to use speech to text capabilities to transcribe public hearings and community forums discussing urban development projects, so that I can analyze community input and concerns for informed policy recommendations.</t>
+  </si>
+  <si>
+    <t>As a researcher in sociology, I want to apply text categorization techniques to analyze news articles on social movements to categorize them based on their goals (e.g., civil rights, environmental justice), so that I can understand the diversity of movements and their impact on social change.</t>
+  </si>
+  <si>
+    <t>As a social scientist, I want to use unsupervised clustering to analyze patterns of social network interactions among individuals in a rural community to identify influential community leaders and opinion influencers, so that I can understand social dynamics and community resilience.</t>
+  </si>
+  <si>
+    <t>As a sociologist, I want to use voice recognition technology to transcribe and analyze interviews with elderly individuals about their experiences during historical events, so that I can capture oral histories and preserve cultural heritage.</t>
+  </si>
+  <si>
+    <t>As a social scientist, I want to use word embedding algorithms to analyze student essays discussing cultural diversity to identify underlying themes and perspectives on multiculturalism in educational settings.</t>
   </si>
 </sst>
 </file>
@@ -596,7 +659,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -649,6 +712,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB45F06"/>
         <bgColor rgb="FFB45F06"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF783F04"/>
+        <bgColor rgb="FF783F04"/>
       </patternFill>
     </fill>
   </fills>
@@ -728,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -835,6 +904,18 @@
       <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -3880,6 +3961,406 @@
         <v>10</v>
       </c>
     </row>
+    <row r="142">
+      <c r="A142" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B142" s="37">
+        <v>7.0</v>
+      </c>
+      <c r="C142" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D142" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B143" s="37">
+        <v>7.0</v>
+      </c>
+      <c r="C143" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D143" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E143" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B144" s="37">
+        <v>7.0</v>
+      </c>
+      <c r="C144" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D144" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E144" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B145" s="37">
+        <v>7.0</v>
+      </c>
+      <c r="C145" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D145" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E145" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B146" s="37">
+        <v>7.0</v>
+      </c>
+      <c r="C146" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D146" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E146" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B147" s="37">
+        <v>7.0</v>
+      </c>
+      <c r="C147" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D147" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E147" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B148" s="37">
+        <v>7.0</v>
+      </c>
+      <c r="C148" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D148" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E148" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B149" s="37">
+        <v>7.0</v>
+      </c>
+      <c r="C149" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D149" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E149" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="F149" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B150" s="37">
+        <v>7.0</v>
+      </c>
+      <c r="C150" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D150" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E150" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="F150" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B151" s="37">
+        <v>7.0</v>
+      </c>
+      <c r="C151" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D151" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E151" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B152" s="37">
+        <v>7.0</v>
+      </c>
+      <c r="C152" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D152" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E152" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="F152" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B153" s="37">
+        <v>7.0</v>
+      </c>
+      <c r="C153" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D153" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E153" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="F153" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B154" s="37">
+        <v>7.0</v>
+      </c>
+      <c r="C154" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D154" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E154" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="F154" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B155" s="37">
+        <v>7.0</v>
+      </c>
+      <c r="C155" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D155" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E155" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B156" s="37">
+        <v>7.0</v>
+      </c>
+      <c r="C156" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D156" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E156" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="F156" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B157" s="37">
+        <v>7.0</v>
+      </c>
+      <c r="C157" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D157" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E157" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="F157" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B158" s="37">
+        <v>7.0</v>
+      </c>
+      <c r="C158" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D158" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E158" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="F158" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B159" s="37">
+        <v>7.0</v>
+      </c>
+      <c r="C159" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D159" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E159" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="F159" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B160" s="37">
+        <v>7.0</v>
+      </c>
+      <c r="C160" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D160" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E160" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="F160" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B161" s="37">
+        <v>7.0</v>
+      </c>
+      <c r="C161" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D161" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E161" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="F161" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/refair-server/datasets/FSDataset-2.xlsx
+++ b/refair-server/datasets/FSDataset-2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="218">
   <si>
     <t>Domain Cluster</t>
   </si>
@@ -602,6 +602,69 @@
   </si>
   <si>
     <t>As a social scientist, I want to use word embedding algorithms to analyze student essays discussing cultural diversity to identify underlying themes and perspectives on multiculturalism in educational settings.</t>
+  </si>
+  <si>
+    <t>Transportations</t>
+  </si>
+  <si>
+    <t>As a logistics manager, I want to employ adversarial learning models to identify fraudulent activities in shipment tracking systems, so that I can prevent cargo theft and ensure the integrity of supply chain operations.</t>
+  </si>
+  <si>
+    <t>As a railway operator, I want to employ CNN architectures to analyze track condition images captured by drones, so that I can detect defects early, schedule maintenance proactively, and improve overall safety and reliability.</t>
+  </si>
+  <si>
+    <t>As an airport information desk operator, I want to implement a conversational agent to help travelers navigate through the airport, find amenities, and receive real-time updates on flight statuses, so that I can enhance customer satisfaction and streamline operations.</t>
+  </si>
+  <si>
+    <t>As a traffic engineer, I want to use decision tree models to analyze historical traffic data and identify key factors contributing to congestion at specific intersections, so that I can optimize traffic signal timings and improve traffic flow.</t>
+  </si>
+  <si>
+    <t>As a safety compliance officer for a transportation company, I want to implement document classification models to categorize and prioritize incident reports and safety inspection records, so that I can identify trends, assess risks, and improve safety protocols.</t>
+  </si>
+  <si>
+    <t>As an airline operations manager, I want to deploy entity extraction models to automatically extract flight details including departure times, arrival times, flight numbers, and destinations from flight schedules and booking confirmations, so that I can monitor flight statuses and manage operations more effectively.</t>
+  </si>
+  <si>
+    <t>As a logistics planner, I want to use feature selection techniques to identify key variables in shipment data that impact delivery times, such as distance, mode of transport, and traffic conditions, so that I can improve delivery efficiency and customer satisfaction.</t>
+  </si>
+  <si>
+    <t>As a railway safety officer, I want to address the imbalanced dataset in incident reports to improve the accuracy of predicting rare but critical safety incidents, such as derailments or collisions, so that I can implement targeted safety measures and reduce risks.</t>
+  </si>
+  <si>
+    <t>As a public transport planner, I want to utilize k-NN algorithms to recommend optimal transit routes to commuters based on their historical travel patterns and current traffic conditions, so that I can enhance commuter satisfaction and promote the use of public transportation.</t>
+  </si>
+  <si>
+    <t>As a transportation planner, I want to apply keyword extraction methods to analyze public feedback and comments on transportation services to identify key concerns and suggestions, so that I can improve service quality and customer satisfaction.</t>
+  </si>
+  <si>
+    <t>As a cargo logistics manager, I want to use multi-label classification to predict the types of goods being transported based on shipment descriptions, so that I can ensure proper handling, storage, and compliance with transport regulations.</t>
+  </si>
+  <si>
+    <t>As an autonomous vehicle developer, I want to train neural networks to recognize and classify different types of road obstacles and hazards from sensor data, such as pedestrians, cyclists, and road debris, so that I can improve the vehicle's ability to navigate safely.</t>
+  </si>
+  <si>
+    <t>As a logistics manager, I want to deploy a random forest algorithm to classify delivery routes based on factors such as distance, road conditions, and delivery time windows, so that I can optimize route planning and ensure timely deliveries.</t>
+  </si>
+  <si>
+    <t>As a traffic management system developer, I want to implement semantic similarity algorithms to identify similar traffic incident reports and prioritize response efforts based on the severity and impact on traffic flow, so that I can improve incident management efficiency.</t>
+  </si>
+  <si>
+    <t>As a public transport planner, I want to use sentiment analysis to analyze commuter sentiment towards different routes and services based on social media posts and surveys, so that I can prioritize enhancements and adjustments in public transport offerings.</t>
+  </si>
+  <si>
+    <t>As a railway station announcer, I want to deploy speech-to-text systems to transcribe train arrival and departure announcements in real-time, so that I can provide accurate and timely information to passengers, especially in noisy or crowded environments.</t>
+  </si>
+  <si>
+    <t>As an airport operations manager, I want to utilize text categorization algorithms to categorize passenger feedback received through surveys and comment cards into categories such as facilities, staff interactions, and amenities, so that I can identify areas for improvement and enhance passenger experience.</t>
+  </si>
+  <si>
+    <t>As a traffic management engineer, I want to use unsupervised clustering algorithms to group traffic sensors based on similar traffic patterns and congestion levels, so that I can identify critical areas for traffic flow optimization and signal timing adjustments.</t>
+  </si>
+  <si>
+    <t>As a railway station announcer, I want to deploy voice recognition software to automatically transcribe and broadcast train departure and arrival announcements, so that I can ensure accurate and timely information for passengers.</t>
+  </si>
+  <si>
+    <t>As a logistics planner, I want to use word embedding models to analyze customer feedback and identify key themes and sentiments related to delivery services, so that I can prioritize improvements and enhance customer satisfaction.</t>
   </si>
 </sst>
 </file>
@@ -659,7 +722,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -718,6 +781,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF783F04"/>
         <bgColor rgb="FF783F04"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF990000"/>
+        <bgColor rgb="FF990000"/>
       </patternFill>
     </fill>
   </fills>
@@ -797,7 +866,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -916,6 +985,15 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -4361,6 +4439,406 @@
         <v>10</v>
       </c>
     </row>
+    <row r="162">
+      <c r="A162" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B162" s="41">
+        <v>7.0</v>
+      </c>
+      <c r="C162" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="D162" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E162" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="F162" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B163" s="41">
+        <v>7.0</v>
+      </c>
+      <c r="C163" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="D163" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E163" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="F163" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B164" s="41">
+        <v>7.0</v>
+      </c>
+      <c r="C164" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="D164" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E164" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="F164" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B165" s="41">
+        <v>7.0</v>
+      </c>
+      <c r="C165" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="D165" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E165" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="F165" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B166" s="41">
+        <v>7.0</v>
+      </c>
+      <c r="C166" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="D166" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E166" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="F166" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B167" s="41">
+        <v>7.0</v>
+      </c>
+      <c r="C167" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="D167" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E167" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="F167" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B168" s="41">
+        <v>7.0</v>
+      </c>
+      <c r="C168" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="D168" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E168" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="F168" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B169" s="41">
+        <v>7.0</v>
+      </c>
+      <c r="C169" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="D169" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E169" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="F169" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B170" s="41">
+        <v>7.0</v>
+      </c>
+      <c r="C170" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="D170" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E170" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="F170" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B171" s="41">
+        <v>7.0</v>
+      </c>
+      <c r="C171" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="D171" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E171" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="F171" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B172" s="41">
+        <v>7.0</v>
+      </c>
+      <c r="C172" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="D172" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E172" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="F172" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B173" s="41">
+        <v>7.0</v>
+      </c>
+      <c r="C173" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="D173" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E173" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="F173" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B174" s="41">
+        <v>7.0</v>
+      </c>
+      <c r="C174" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="D174" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E174" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="F174" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B175" s="41">
+        <v>7.0</v>
+      </c>
+      <c r="C175" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="D175" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E175" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="F175" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B176" s="41">
+        <v>7.0</v>
+      </c>
+      <c r="C176" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="D176" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E176" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="F176" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B177" s="41">
+        <v>7.0</v>
+      </c>
+      <c r="C177" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="D177" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E177" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="F177" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B178" s="41">
+        <v>7.0</v>
+      </c>
+      <c r="C178" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="D178" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E178" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="F178" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B179" s="41">
+        <v>7.0</v>
+      </c>
+      <c r="C179" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="D179" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E179" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="F179" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B180" s="41">
+        <v>7.0</v>
+      </c>
+      <c r="C180" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="D180" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E180" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="F180" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B181" s="41">
+        <v>7.0</v>
+      </c>
+      <c r="C181" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="D181" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E181" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="F181" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
